--- a/data/spreadsheet/PaySheetTemplate.xlsx
+++ b/data/spreadsheet/PaySheetTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insulpro\system\spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Kenny-pc\d\Insulpro\data\spreadsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF21B4-B192-4DE4-83F5-86E6A9AEBF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7855E6-1673-40F6-9057-28EED9684E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3BF98FAF-1154-4767-A252-A80AF44792A2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3BF98FAF-1154-4767-A252-A80AF44792A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -98,8 +106,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,51 +447,52 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
